--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2804.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2804.xlsx
@@ -354,7 +354,7 @@
         <v>2.44049884406193</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.365955936427093</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2804.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2804.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16870496059723</v>
+        <v>0.9108380675315857</v>
       </c>
       <c r="B1">
-        <v>2.44049884406193</v>
+        <v>1.643423914909363</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.347991466522217</v>
       </c>
       <c r="D1">
-        <v>2.365955936427093</v>
+        <v>2.603734731674194</v>
       </c>
       <c r="E1">
-        <v>1.231671778201194</v>
+        <v>0.803712010383606</v>
       </c>
     </row>
   </sheetData>
